--- a/LingyuZhou/wk12/Buyers transparency new coding0822.xlsx
+++ b/LingyuZhou/wk12/Buyers transparency new coding0822.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cdocuments\GitHub\labor_audit\LingyuZhou\wk12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5F2D3-0940-4300-B245-7E8C945091F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2A7C6D-DD9B-408C-AD67-6733FD1F9995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="10276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11257" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11279" uniqueCount="860">
   <si>
     <t>QuestID</t>
   </si>
@@ -2491,25 +2491,13 @@
     <t>operation</t>
   </si>
   <si>
-    <t>match the buyer names and the names in the transparency index and take the "policy &amp; commitments" score of the matched buyers based on page 33.</t>
-  </si>
-  <si>
     <t>buyer1gov</t>
-  </si>
-  <si>
-    <t>take the "governance" score of the matched buyer 1 name based on page 38.</t>
   </si>
   <si>
     <t>buyer1trace</t>
   </si>
   <si>
-    <t>take the "traceability" score of the matched buyer 1 name based on page 42.</t>
-  </si>
-  <si>
     <t>buyer1know</t>
-  </si>
-  <si>
-    <t>take the "know, show, fix" score of the matched buyer 1 name based on page 47.</t>
   </si>
   <si>
     <t>buyer2know</t>
@@ -2518,22 +2506,10 @@
     <t>buyer3know</t>
   </si>
   <si>
-    <t>take the "know, show, fix" score of the matched buyer 2 name based on page 47.</t>
-  </si>
-  <si>
-    <t>take the "know, show, fix" score of the matched buyer 3 name based on page 47.</t>
-  </si>
-  <si>
     <t>buyer2trace</t>
   </si>
   <si>
     <t>buyer3trace</t>
-  </si>
-  <si>
-    <t>take the "traceability" score of the matched buyer 2 name based on page 42.</t>
-  </si>
-  <si>
-    <t>take the "traceability" score of the matched buyer 3 name based on page 42.</t>
   </si>
   <si>
     <t>buyertracemx</t>
@@ -2547,12 +2523,121 @@
   <si>
     <t>take the biggest "traceability" score among the three buyers' "traceability" scores.</t>
   </si>
+  <si>
+    <t>buyer1pol19</t>
+  </si>
+  <si>
+    <t>buyer1gov19</t>
+  </si>
+  <si>
+    <t>buyer1trace19</t>
+  </si>
+  <si>
+    <t>buyer2trace19</t>
+  </si>
+  <si>
+    <t>buyer3trace19</t>
+  </si>
+  <si>
+    <t>buyertracemx19</t>
+  </si>
+  <si>
+    <t>buyer1know19</t>
+  </si>
+  <si>
+    <t>buyer2know19</t>
+  </si>
+  <si>
+    <t>buyer3know19</t>
+  </si>
+  <si>
+    <t>buyerknowmx19</t>
+  </si>
+  <si>
+    <t>match the buyer names and the names in the transparency index 2018 and take the "policy &amp; commitments" score of the matched buyers based on page 38 (or S1 in excel).</t>
+  </si>
+  <si>
+    <t>match the buyer names and the names in the transparency index and take the "policy &amp; commitments" score of the matched buyers based on page 33 or S1 in excel table.</t>
+  </si>
+  <si>
+    <t>take the "governance" score of the matched buyer 1 name based on page 38 or S2 in excel table.</t>
+  </si>
+  <si>
+    <t>take the "traceability" score of the matched buyer 1 name based on page 42 or S3 in excel table.</t>
+  </si>
+  <si>
+    <t>take the "traceability" score of the matched buyer 2 name based on page 42 or S3 in excel table.</t>
+  </si>
+  <si>
+    <t>take the "traceability" score of the matched buyer 3 name based on page 42 or S3 in excel table.</t>
+  </si>
+  <si>
+    <t>take the "know, show, fix" score of the matched buyer 1 name based on page 47 or S4 in excel.</t>
+  </si>
+  <si>
+    <t>take the "know, show, fix" score of the matched buyer 2 name based on page 47  S4 in exce.</t>
+  </si>
+  <si>
+    <t>take the "know, show, fix" score of the matched buyer 3 name based on page 47  S4 in exce.</t>
+  </si>
+  <si>
+    <t>take the "governance" score of the matched buyer 1 name based on page 45 or S2 in excel table.</t>
+  </si>
+  <si>
+    <t>take the "traceability" score of the matched buyer 1 name based on page 50 or S3 in excel table.</t>
+  </si>
+  <si>
+    <t>take the "traceability" score of the matched buyer 2 name based on page 50 or S3 in excel table.</t>
+  </si>
+  <si>
+    <t>take the "traceability" score of the matched buyer 3 name based on page 50 or S3 in excel table.</t>
+  </si>
+  <si>
+    <t>take the "know, show, fix" score of the matched buyer 1 name based on page 57 or S4 in excel table.</t>
+  </si>
+  <si>
+    <t>take the "know, show, fix" score of the matched buyer 2 name based on page  57 or S4 in excel table..</t>
+  </si>
+  <si>
+    <t>take the "know, show, fix" score of the matched buyer 3 name based on page  57 or S4 in excel table..</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">code subsections of transparency index published in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2019</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">code sub-sections of transparency index published in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2018</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2564,6 +2649,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2589,9 +2689,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2906,31 +3007,31 @@
         <v>818</v>
       </c>
       <c r="G1" t="s">
+        <v>821</v>
+      </c>
+      <c r="H1" t="s">
         <v>822</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>826</v>
+      </c>
+      <c r="J1" t="s">
+        <v>827</v>
+      </c>
+      <c r="K1" t="s">
+        <v>828</v>
+      </c>
+      <c r="L1" t="s">
+        <v>823</v>
+      </c>
+      <c r="M1" t="s">
         <v>824</v>
       </c>
-      <c r="I1" t="s">
-        <v>832</v>
-      </c>
-      <c r="J1" t="s">
-        <v>833</v>
-      </c>
-      <c r="K1" t="s">
-        <v>836</v>
-      </c>
-      <c r="L1" t="s">
-        <v>826</v>
-      </c>
-      <c r="M1" t="s">
-        <v>828</v>
-      </c>
       <c r="N1" t="s">
+        <v>825</v>
+      </c>
+      <c r="O1" t="s">
         <v>829</v>
-      </c>
-      <c r="O1" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -88600,15 +88701,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98C4BF0-44BD-4B49-9BCC-48B6B781366F}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13.9296875" customWidth="1"/>
     <col min="2" max="2" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -88620,84 +88721,174 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>818</v>
-      </c>
-      <c r="B2" t="s">
-        <v>821</v>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B3" t="s">
-        <v>823</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B4" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="B5" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="B6" t="s">
-        <v>835</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="B7" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B8" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B9" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B10" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>825</v>
+      </c>
+      <c r="B11" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>829</v>
+      </c>
+      <c r="B12" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>832</v>
+      </c>
+      <c r="B15" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>833</v>
+      </c>
+      <c r="B16" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>834</v>
+      </c>
+      <c r="B17" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>835</v>
+      </c>
+      <c r="B18" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>836</v>
+      </c>
+      <c r="B19" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>837</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B20" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>838</v>
+      </c>
+      <c r="B21" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>839</v>
+      </c>
+      <c r="B22" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>840</v>
+      </c>
+      <c r="B23" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>841</v>
+      </c>
+      <c r="B24" t="s">
+        <v>830</v>
       </c>
     </row>
   </sheetData>
